--- a/LeTerrain-LeJeu/src/main/resources/fichiers/missionsPrimaire.xlsx
+++ b/LeTerrain-LeJeu/src/main/resources/fichiers/missionsPrimaire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19875" windowHeight="5025"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19515" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>faire des dictée et recopiée avec mademoiselle chatelain</t>
   </si>
   <si>
-    <t>faire des sketchs avec madame dubois</t>
-  </si>
-  <si>
     <t>faire des dessins avec madame Braquet (elle defonce ton dessin)</t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>etre a coté de georges charpentier en classe (qui vient un samedi par mois)</t>
+  </si>
+  <si>
+    <t>faire des sketchs avec madame dubois l'arracheuse de dent</t>
   </si>
 </sst>
 </file>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B50:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="L161" sqref="L161"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -973,439 +973,439 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" t="s">
         <v>40</v>
-      </c>
-      <c r="D81" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="3:4">
       <c r="D84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="D85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="D86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="D87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="C88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="3:4">
       <c r="D89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="D90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="3:4">
       <c r="D91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="D92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="3:4">
       <c r="D93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="3:4">
       <c r="D94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="D95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="D96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="4:5">
       <c r="D97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="4:5">
       <c r="D98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="4:5">
       <c r="D99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="4:5">
       <c r="D100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="4:5">
       <c r="D101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="4:5">
       <c r="D102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="4:5">
       <c r="D103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="4:5">
       <c r="D104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="4:5">
       <c r="D105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="4:5">
       <c r="D106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="4:5">
       <c r="D107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="4:5">
       <c r="D108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="4:5">
       <c r="D109" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="4:5">
       <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" t="s">
         <v>70</v>
-      </c>
-      <c r="E110" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="111" spans="4:5">
       <c r="D111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="4:5">
       <c r="D112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="4:4">
       <c r="D127" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="4:5">
       <c r="D129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="4:5">
       <c r="E130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="4:5">
       <c r="E131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="4:5">
       <c r="E132" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="4:5">
       <c r="E133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="4:5">
       <c r="E134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135" spans="4:5">
       <c r="E135" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="4:5">
       <c r="D136" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137" spans="4:5">
       <c r="D137" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="4:5">
       <c r="D138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="4:5">
       <c r="D139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="4:5">
       <c r="D140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="4:5">
       <c r="D141" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="4:5">
       <c r="D142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="2:5">
       <c r="D145" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="2:5" customFormat="1">
       <c r="D146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="2:5" customFormat="1">
       <c r="D147" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="2:5" customFormat="1">
       <c r="D148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="2:5" customFormat="1">
       <c r="D149" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="2:5" customFormat="1">
       <c r="D150" t="s">
+        <v>108</v>
+      </c>
+      <c r="E150" t="s">
         <v>109</v>
-      </c>
-      <c r="E150" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="151" spans="2:5" customFormat="1">
       <c r="D151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="2:5" customFormat="1">
       <c r="D152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="2:5" customFormat="1">
       <c r="D153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="2:5" customFormat="1">
       <c r="D154" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="155" spans="2:5" customFormat="1">
       <c r="D155" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="2:5" customFormat="1">
       <c r="D156" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="2:5" customFormat="1">
       <c r="D157" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="2:5" customFormat="1">
       <c r="D158" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="2:5" customFormat="1"/>
     <row r="160" spans="2:5" customFormat="1">
       <c r="D160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="161" spans="2:5" customFormat="1">
       <c r="D161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162" spans="2:5" customFormat="1">
       <c r="D162" t="s">
+        <v>120</v>
+      </c>
+      <c r="E162" t="s">
         <v>121</v>
-      </c>
-      <c r="E162" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="164" spans="2:5" customFormat="1">
       <c r="D164" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165" spans="2:5" customFormat="1">
       <c r="D165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="166" spans="2:5" customFormat="1">
       <c r="D166" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167" spans="2:5" customFormat="1">
       <c r="D167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170" spans="2:5" customFormat="1">
@@ -1423,7 +1423,7 @@
     </row>
     <row r="172" spans="2:5" customFormat="1">
       <c r="D172" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="2:5" customFormat="1">
@@ -1433,7 +1433,7 @@
     </row>
     <row r="174" spans="2:5" customFormat="1">
       <c r="D174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="175" spans="2:5" customFormat="1">
@@ -1448,7 +1448,7 @@
     </row>
     <row r="177" spans="2:5" customFormat="1">
       <c r="D177" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="2:5" customFormat="1">
@@ -1458,12 +1458,12 @@
     </row>
     <row r="179" spans="2:5" customFormat="1">
       <c r="D179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="2:5" customFormat="1">
       <c r="D180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="2:5" customFormat="1">
@@ -1488,7 +1488,7 @@
     </row>
     <row r="189" spans="2:5" customFormat="1">
       <c r="B189" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="191" spans="2:5" customFormat="1">
